--- a/Results_ST1.xlsx
+++ b/Results_ST1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitanshjain/Documents/Projects/CASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{679DA22C-3ED6-C846-A884-1044460920C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD02C3A-685C-E743-AFF9-5329561FB150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C5EB9B45-C453-ED44-A410-DAC4C6713FD6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Dataset</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>MNB</t>
+  </si>
+  <si>
+    <t>Embeddings</t>
+  </si>
+  <si>
+    <t>FastText</t>
+  </si>
+  <si>
+    <t>Scaling</t>
+  </si>
+  <si>
+    <t>MinMax</t>
   </si>
 </sst>
 </file>
@@ -411,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58CF967-29B9-EC40-8123-04EA241913C3}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,7 +439,7 @@
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -446,69 +458,219 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.46</v>
+      </c>
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.46</v>
+      </c>
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.44</v>
+      </c>
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5">
+        <v>0.65</v>
+      </c>
+      <c r="C5">
+        <v>0.09</v>
+      </c>
+      <c r="D5">
+        <v>0.16</v>
+      </c>
+      <c r="E5">
+        <v>0.48</v>
+      </c>
       <c r="F5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="C6">
+        <v>0.9</v>
+      </c>
+      <c r="D6">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="E6">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.46</v>
+      </c>
       <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C8">
+        <v>0.76</v>
+      </c>
+      <c r="D8">
+        <v>0.65</v>
+      </c>
+      <c r="E8">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="F8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.45</v>
+      </c>
       <c r="F9">
         <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Results_ST1.xlsx
+++ b/Results_ST1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitanshjain/Documents/Projects/CASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD02C3A-685C-E743-AFF9-5329561FB150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED4AB81-BA09-FA44-BD49-15927D0A5FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C5EB9B45-C453-ED44-A410-DAC4C6713FD6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="15">
   <si>
     <t>Dataset</t>
   </si>
@@ -72,12 +72,21 @@
   </si>
   <si>
     <t>MinMax</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>BiLSTM</t>
+  </si>
+  <si>
+    <t>POS Tags</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -114,7 +123,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{5F82A39B-6862-C444-A321-2286957CB9A5}">
+      <tableStyleElement type="firstRowStripe" size="4"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -124,6 +137,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B48CA45C-8AC3-9A42-B42D-6C209850E0B4}" name="Table1" displayName="Table1" ref="A1:H33" totalsRowShown="0">
+  <autoFilter ref="A1:H33" xr:uid="{B48CA45C-8AC3-9A42-B42D-6C209850E0B4}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{9FD7C998-577E-8B4B-8C98-7819DE6B472C}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{19F8C9D5-2C33-8745-988A-999C883D5458}" name="Precision"/>
+    <tableColumn id="3" xr3:uid="{32D16872-37C7-214D-BA3D-011183DB21E2}" name="Recall"/>
+    <tableColumn id="4" xr3:uid="{6B2B0054-266E-5A4D-BDCE-C8A6E3A5E6AC}" name="F1 Score"/>
+    <tableColumn id="5" xr3:uid="{5564B40B-62CA-1946-90C7-C3ADBEA079FC}" name="Accuracy"/>
+    <tableColumn id="6" xr3:uid="{C198836E-5DC6-FE4E-8F19-EA04BF72CFB4}" name="Dataset"/>
+    <tableColumn id="7" xr3:uid="{DCECE072-7F26-254D-9960-69AECB67C9CF}" name="Embeddings"/>
+    <tableColumn id="8" xr3:uid="{7FE049F1-3F5C-4648-B38E-D7B642680B63}" name="Scaling"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,20 +453,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58CF967-29B9-EC40-8123-04EA241913C3}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -673,7 +704,346 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>